--- a/VT_REG_PRI_V03.xlsx
+++ b/VT_REG_PRI_V03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_003\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\DemoS_003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D99DAAE-5873-48F9-B617-27473B061F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF44B16B-48E6-493A-911B-33BAA913B446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -9652,7 +9652,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10027,6 +10027,7 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="20" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -13395,24 +13396,24 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P1" s="35" t="s">
         <v>118</v>
       </c>
@@ -13426,7 +13427,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="10"/>
       <c r="D2" s="70" t="s">
         <v>47</v>
@@ -13465,7 +13466,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="12"/>
       <c r="D3" s="71" t="s">
         <v>55</v>
@@ -13496,7 +13497,7 @@
       </c>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C4" s="164" t="s">
         <v>62</v>
       </c>
@@ -13511,7 +13512,7 @@
       <c r="L4" s="167"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="72" t="s">
         <v>63</v>
       </c>
@@ -13549,7 +13550,7 @@
       <c r="M5" s="9"/>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="72" t="s">
         <v>65</v>
       </c>
@@ -13586,7 +13587,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="72" t="s">
         <v>67</v>
       </c>
@@ -13624,7 +13625,7 @@
       <c r="M7" s="9"/>
       <c r="P7" s="13"/>
     </row>
-    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="160" t="s">
         <v>192</v>
       </c>
@@ -13669,7 +13670,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="67"/>
       <c r="C9" s="170" t="s">
         <v>69</v>
@@ -13685,7 +13686,7 @@
       <c r="L9" s="171"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="72" t="s">
         <v>70</v>
       </c>
@@ -13722,7 +13723,7 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="72" t="s">
         <v>54</v>
       </c>
@@ -13759,7 +13760,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="72" t="s">
         <v>73</v>
       </c>
@@ -13796,7 +13797,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" s="72" t="s">
         <v>75</v>
       </c>
@@ -13819,7 +13820,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="67"/>
       <c r="C14" s="87" t="s">
         <v>77</v>
@@ -13862,7 +13863,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="67"/>
       <c r="C15" s="170" t="s">
         <v>78</v>
@@ -13878,7 +13879,7 @@
       <c r="L15" s="171"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="72" t="s">
         <v>79</v>
@@ -13916,7 +13917,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="72" t="s">
         <v>81</v>
@@ -13954,7 +13955,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="72" t="s">
         <v>83</v>
@@ -13992,7 +13993,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="72" t="s">
         <v>85</v>
@@ -14030,7 +14031,7 @@
       </c>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="72" t="s">
         <v>87</v>
@@ -14068,7 +14069,7 @@
       </c>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="72" t="s">
         <v>89</v>
@@ -14112,7 +14113,7 @@
       </c>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="72" t="s">
         <v>109</v>
@@ -14148,7 +14149,7 @@
       </c>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="72" t="s">
         <v>110</v>
@@ -14184,7 +14185,7 @@
       </c>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="160" t="s">
         <v>112</v>
@@ -14230,7 +14231,7 @@
       </c>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="D25" s="13"/>
       <c r="F25" s="13"/>
@@ -14242,7 +14243,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="D26" s="13"/>
       <c r="F26" s="13"/>
@@ -14254,7 +14255,7 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="C27" s="79" t="s">
         <v>180</v>
@@ -14270,7 +14271,7 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="D28" s="13"/>
       <c r="F28" s="13"/>
@@ -14282,7 +14283,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="D29" s="13"/>
       <c r="F29" s="13"/>
@@ -14294,7 +14295,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="D30" s="13"/>
       <c r="F30" s="13"/>
@@ -14306,7 +14307,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="D31" s="13"/>
       <c r="F31" s="13"/>
@@ -14318,7 +14319,7 @@
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="D32" s="13"/>
       <c r="F32" s="13"/>
@@ -14330,7 +14331,7 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="13"/>
       <c r="F33" s="13"/>
@@ -14342,7 +14343,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="D34" s="13"/>
       <c r="F34" s="13"/>
@@ -14354,7 +14355,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="D35" s="13"/>
       <c r="F35" s="13"/>
@@ -14366,7 +14367,7 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="D36" s="36" t="s">
         <v>47</v>
@@ -14385,7 +14386,7 @@
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="C37" s="37" t="s">
         <v>148</v>
@@ -14407,7 +14408,7 @@
       <c r="L37" s="42"/>
       <c r="M37" s="42"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="C38" s="39" t="s">
         <v>149</v>
@@ -14429,17 +14430,17 @@
       <c r="L38" s="42"/>
       <c r="M38" s="42"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="C39" s="41"/>
       <c r="D39" s="42"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="C40" s="41"/>
       <c r="D40" s="42"/>
     </row>
-    <row r="41" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="46" t="s">
         <v>130</v>
@@ -14473,7 +14474,7 @@
       </c>
       <c r="L41" s="47"/>
     </row>
-    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="72" t="s">
         <v>79</v>
@@ -14496,7 +14497,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="72" t="s">
         <v>87</v>
@@ -14519,13 +14520,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="C46" s="106" t="s">
         <v>138</v>
@@ -14537,7 +14538,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="35" t="s">
         <v>152</v>
@@ -14552,7 +14553,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="72" t="s">
         <v>79</v>
@@ -14563,7 +14564,7 @@
       <c r="D48" s="103"/>
       <c r="E48" s="103"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="72" t="s">
         <v>87</v>
@@ -14574,7 +14575,7 @@
       <c r="D49" s="103"/>
       <c r="E49" s="103"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="72" t="s">
         <v>89</v>
@@ -14585,7 +14586,7 @@
       <c r="D50" s="103"/>
       <c r="E50" s="103"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="72" t="s">
         <v>54</v>
@@ -14611,32 +14612,32 @@
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="48" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="48" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="48" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="48" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="48" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="48" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="48" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="48" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="48" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="48" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" style="48" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" style="48" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="48" customWidth="1"/>
     <col min="18" max="18" width="13" style="48" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="48" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="48"/>
+    <col min="19" max="19" width="13.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" style="48" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>94</v>
       </c>
@@ -14657,7 +14658,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -14694,7 +14695,7 @@
       <c r="S2" s="206"/>
       <c r="T2" s="206"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G3" s="50"/>
       <c r="L3" s="209" t="s">
         <v>7</v>
@@ -14724,7 +14725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" s="50" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -14758,7 +14759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -14785,7 +14786,7 @@
       <c r="S5" s="211"/>
       <c r="T5" s="211"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -14806,7 +14807,7 @@
       <c r="S8" s="207"/>
       <c r="T8" s="207"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
@@ -14862,7 +14863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>42</v>
       </c>
@@ -14918,7 +14919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
         <v>114</v>
       </c>
@@ -14953,7 +14954,7 @@
       <c r="S11" s="199"/>
       <c r="T11" s="199"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="str">
         <f>N12</f>
         <v>DTPSCOA</v>
@@ -15007,7 +15008,7 @@
       <c r="S12" s="212"/>
       <c r="T12" s="212"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D13" s="50"/>
       <c r="E13" s="135"/>
       <c r="F13" s="156"/>
@@ -15025,7 +15026,7 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="52"/>
       <c r="D14" s="52"/>
       <c r="E14" s="131"/>
@@ -15044,7 +15045,7 @@
       <c r="S14" s="50"/>
       <c r="T14" s="50"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="52"/>
       <c r="E15" s="131"/>
       <c r="F15" s="157"/>
@@ -15062,7 +15063,7 @@
       <c r="S15" s="50"/>
       <c r="T15" s="50"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
@@ -15078,7 +15079,7 @@
       <c r="S16" s="50"/>
       <c r="T16" s="50"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
@@ -15094,7 +15095,7 @@
       <c r="S17" s="50"/>
       <c r="T17" s="50"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I18" s="130"/>
       <c r="L18" s="50"/>
       <c r="M18" s="50"/>
@@ -15106,7 +15107,7 @@
       <c r="S18" s="50"/>
       <c r="T18" s="50"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I19" s="130"/>
       <c r="L19" s="50"/>
       <c r="M19" s="50"/>
@@ -15118,7 +15119,7 @@
       <c r="S19" s="50"/>
       <c r="T19" s="50"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
       <c r="N20" s="50"/>
@@ -15129,7 +15130,7 @@
       <c r="S20" s="50"/>
       <c r="T20" s="50"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L21" s="50"/>
       <c r="M21" s="50"/>
       <c r="N21" s="50"/>
@@ -15140,7 +15141,7 @@
       <c r="S21" s="50"/>
       <c r="T21" s="50"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L22" s="50"/>
       <c r="M22" s="50"/>
       <c r="N22" s="50"/>
@@ -15151,28 +15152,28 @@
       <c r="S22" s="50"/>
       <c r="T22" s="50"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="119"/>
       <c r="C23" s="49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="159"/>
       <c r="C24" s="49" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K25" s="49"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K26" s="49"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K27" s="49"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K28" s="49"/>
     </row>
   </sheetData>
@@ -15190,32 +15191,32 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="48" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="48" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="48" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="48" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="48" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="48" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="48" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.42578125" style="48" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="48" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="48" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="48" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="48"/>
+    <col min="4" max="4" width="13.88671875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="48" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="48" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" style="48" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.44140625" style="48" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="48" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" style="48" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" style="48" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>94</v>
       </c>
@@ -15235,7 +15236,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -15271,7 +15272,7 @@
       <c r="S2" s="206"/>
       <c r="T2" s="206"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L3" s="209" t="s">
         <v>7</v>
       </c>
@@ -15300,7 +15301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" s="50" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -15334,7 +15335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -15361,7 +15362,7 @@
       <c r="S5" s="211"/>
       <c r="T5" s="211"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -15382,7 +15383,7 @@
       <c r="S8" s="207"/>
       <c r="T8" s="207"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
@@ -15438,7 +15439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>42</v>
       </c>
@@ -15494,7 +15495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
         <v>114</v>
       </c>
@@ -15529,7 +15530,7 @@
       <c r="S11" s="199"/>
       <c r="T11" s="199"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="str">
         <f>N12</f>
         <v>DTPSELC</v>
@@ -15583,7 +15584,7 @@
       <c r="S12" s="212"/>
       <c r="T12" s="212"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D13" s="50"/>
       <c r="E13" s="135"/>
       <c r="F13" s="156"/>
@@ -15601,7 +15602,7 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="52"/>
       <c r="D14" s="52"/>
       <c r="E14" s="131"/>
@@ -15620,7 +15621,7 @@
       <c r="S14" s="50"/>
       <c r="T14" s="50"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="52"/>
       <c r="E15" s="131"/>
       <c r="F15" s="157"/>
@@ -15638,7 +15639,7 @@
       <c r="S15" s="50"/>
       <c r="T15" s="50"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
@@ -15654,7 +15655,7 @@
       <c r="S16" s="50"/>
       <c r="T16" s="50"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
@@ -15670,7 +15671,7 @@
       <c r="S17" s="50"/>
       <c r="T17" s="50"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I18" s="130"/>
       <c r="L18" s="50"/>
       <c r="M18" s="50"/>
@@ -15682,7 +15683,7 @@
       <c r="S18" s="50"/>
       <c r="T18" s="50"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I19" s="130"/>
       <c r="L19" s="50"/>
       <c r="M19" s="50"/>
@@ -15694,7 +15695,7 @@
       <c r="S19" s="50"/>
       <c r="T19" s="50"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
       <c r="N20" s="50"/>
@@ -15705,7 +15706,7 @@
       <c r="S20" s="50"/>
       <c r="T20" s="50"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L21" s="50"/>
       <c r="M21" s="50"/>
       <c r="N21" s="50"/>
@@ -15716,7 +15717,7 @@
       <c r="S21" s="50"/>
       <c r="T21" s="50"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L22" s="50"/>
       <c r="M22" s="50"/>
       <c r="N22" s="50"/>
@@ -15727,28 +15728,28 @@
       <c r="S22" s="50"/>
       <c r="T22" s="50"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="119"/>
       <c r="C23" s="49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="159"/>
       <c r="C24" s="49" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K25" s="49"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K26" s="49"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K27" s="49"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K28" s="49"/>
     </row>
   </sheetData>
@@ -15766,33 +15767,33 @@
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="56" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="79.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
+    <col min="17" max="17" width="79.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" customWidth="1"/>
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>94</v>
       </c>
@@ -15818,7 +15819,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="str">
         <f>EnergyBalance!B20</f>
         <v>TRA</v>
@@ -15859,7 +15860,7 @@
       <c r="U2" s="196"/>
       <c r="V2" s="196"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N3" s="197" t="s">
         <v>7</v>
       </c>
@@ -15888,7 +15889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" s="9" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -15923,7 +15924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -15951,7 +15952,7 @@
       <c r="U5" s="200"/>
       <c r="V5" s="200"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N6" s="202" t="s">
         <v>137</v>
       </c>
@@ -15973,7 +15974,7 @@
       <c r="U6" s="202"/>
       <c r="V6" s="202"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -15996,7 +15997,7 @@
       <c r="U8" s="202"/>
       <c r="V8" s="202"/>
     </row>
-    <row r="9" spans="2:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
@@ -16058,7 +16059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>42</v>
       </c>
@@ -16118,7 +16119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
         <v>114</v>
       </c>
@@ -16170,7 +16171,7 @@
       <c r="U11" s="201"/>
       <c r="V11" s="201"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>P11</f>
         <v>TOTEOIL</v>
@@ -16223,7 +16224,7 @@
       <c r="U12" s="202"/>
       <c r="V12" s="202"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f>$P$6</f>
         <v>TRACO2</v>
@@ -16246,7 +16247,7 @@
       <c r="U13" s="15"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="str">
         <f>P12</f>
         <v>TOTNOIL</v>
@@ -16290,7 +16291,7 @@
       <c r="U14" s="15"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="D15" t="str">
         <f>$P$6</f>
@@ -16317,10 +16318,10 @@
       <c r="U15" s="15"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L17"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -16332,7 +16333,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L18"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -16344,7 +16345,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L19"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -16356,7 +16357,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L20"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -16368,7 +16369,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -16379,7 +16380,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B23" s="76"/>
       <c r="C23" s="1" t="s">
         <v>181</v>
@@ -16387,7 +16388,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24" s="111"/>
       <c r="C24" s="1" t="s">
         <v>182</v>
@@ -16396,13 +16397,13 @@
       <c r="L24" s="14"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="K25" s="1"/>
       <c r="L25" s="14"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -16426,11 +16427,11 @@
       <c r="U26"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
     </row>
   </sheetData>
@@ -16448,33 +16449,33 @@
       <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" customWidth="1"/>
+    <col min="21" max="21" width="13.88671875" customWidth="1"/>
+    <col min="22" max="22" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>94</v>
       </c>
@@ -16497,7 +16498,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="str">
         <f>EnergyBalance!B16</f>
         <v>RSD</v>
@@ -16536,7 +16537,7 @@
       <c r="U2" s="196"/>
       <c r="V2" s="196"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N3" s="197" t="s">
         <v>7</v>
       </c>
@@ -16565,7 +16566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" s="9" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -16599,7 +16600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -16626,7 +16627,7 @@
       <c r="U5" s="200"/>
       <c r="V5" s="200"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N6" s="202" t="s">
         <v>137</v>
       </c>
@@ -16648,7 +16649,7 @@
       <c r="U6" s="202"/>
       <c r="V6" s="202"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -16670,7 +16671,7 @@
       <c r="U8" s="202"/>
       <c r="V8" s="202"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
@@ -16732,7 +16733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>42</v>
       </c>
@@ -16792,7 +16793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
         <v>114</v>
       </c>
@@ -16832,7 +16833,7 @@
       <c r="U11" s="199"/>
       <c r="V11" s="199"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>P12</f>
         <v>ROTEGAS</v>
@@ -16886,7 +16887,7 @@
       <c r="U12" s="201"/>
       <c r="V12" s="201"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f>$P$6</f>
         <v>RSDCO2</v>
@@ -16921,7 +16922,7 @@
       <c r="U13" s="201"/>
       <c r="V13" s="201"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="str">
         <f>P13</f>
         <v>ROTNGAS</v>
@@ -16964,7 +16965,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="D15" t="str">
         <f>$P$6</f>
@@ -16991,7 +16992,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -17002,7 +17003,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -17013,7 +17014,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="I18" s="24"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -17025,7 +17026,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="I19" s="24"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -17037,7 +17038,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
@@ -17048,7 +17049,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -17059,7 +17060,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -17070,35 +17071,35 @@
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="76"/>
       <c r="C23" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="111"/>
       <c r="C24" s="1" t="s">
         <v>182</v>
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
@@ -17117,20 +17118,20 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.33203125" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>94</v>
       </c>
@@ -17147,7 +17148,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>105</v>
       </c>
@@ -17162,14 +17163,14 @@
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>102</v>
       </c>
@@ -17195,7 +17196,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>103</v>
       </c>
@@ -17216,7 +17217,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -17232,7 +17233,7 @@
       <c r="I8" s="23"/>
       <c r="K8" s="123"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="59" t="s">
         <v>35</v>
       </c>
@@ -17253,7 +17254,7 @@
       <c r="I9" s="151"/>
       <c r="K9" s="116"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
@@ -17274,7 +17275,7 @@
       <c r="I10" s="152"/>
       <c r="K10" s="118"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
@@ -17295,7 +17296,7 @@
       <c r="I11" s="129"/>
       <c r="K11" s="124"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="45" t="s">
         <v>35</v>
       </c>
@@ -17330,22 +17331,22 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E14" s="54"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E16" s="13"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="76"/>
       <c r="C22" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="111"/>
       <c r="C23" s="1" t="s">
         <v>182</v>
@@ -17361,60 +17362,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" customWidth="1"/>
+    <col min="21" max="21" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="126" t="s">
         <v>200</v>
       </c>
       <c r="K2" s="126"/>
     </row>
-    <row r="3" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="K3" s="126"/>
     </row>
-    <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B4" s="126" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="46" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M11" s="128"/>
       <c r="N11" s="128"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M12" s="9"/>
       <c r="N12" s="15"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M13" s="9"/>
       <c r="N13" s="15"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M14" s="9"/>
       <c r="N14" s="15"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B15" s="126" t="s">
         <v>201</v>
       </c>
@@ -17422,7 +17423,7 @@
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="17" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D17" s="127" t="s">
         <v>184</v>
       </c>
@@ -17444,15 +17445,15 @@
       <c r="V17" s="127"/>
       <c r="W17" s="127"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="185"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
     </row>
@@ -17471,30 +17472,30 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="43" t="s">
         <v>94</v>
       </c>
@@ -17512,7 +17513,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="str">
         <f>EnergyBalance!D2</f>
@@ -17542,7 +17543,7 @@
       <c r="R2" s="196"/>
       <c r="S2" s="196"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K3" s="197" t="s">
         <v>7</v>
       </c>
@@ -17571,7 +17572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="K4" s="199" t="s">
         <v>40</v>
@@ -17601,7 +17602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K5" s="200" t="s">
         <v>93</v>
       </c>
@@ -17623,7 +17624,7 @@
       <c r="R5" s="200"/>
       <c r="S5" s="200"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K6" s="15"/>
       <c r="L6" s="9"/>
       <c r="M6" s="15"/>
@@ -17634,7 +17635,7 @@
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -17651,7 +17652,7 @@
       <c r="R7" s="202"/>
       <c r="S7" s="202"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -17704,7 +17705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
@@ -17753,7 +17754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>114</v>
       </c>
@@ -17785,7 +17786,7 @@
       <c r="R10" s="203"/>
       <c r="S10" s="203"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="str">
         <f>M11</f>
         <v>MINCOA1</v>
@@ -17832,7 +17833,7 @@
       <c r="R11" s="201"/>
       <c r="S11" s="201"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -17865,7 +17866,7 @@
       <c r="R12" s="201"/>
       <c r="S12" s="201"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="str">
         <f>M12</f>
         <v>MINCOA2</v>
@@ -17908,7 +17909,7 @@
       <c r="R13" s="201"/>
       <c r="S13" s="201"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -17943,7 +17944,7 @@
       <c r="R14" s="201"/>
       <c r="S14" s="201"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="15" t="str">
         <f>M13</f>
@@ -17987,7 +17988,7 @@
       <c r="S15" s="201"/>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="15" t="str">
         <f>M14</f>
@@ -18016,7 +18017,7 @@
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="str">
         <f>M15</f>
         <v>EXPCOA1</v>
@@ -18049,7 +18050,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -18065,11 +18066,11 @@
       <c r="J18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -18079,7 +18080,7 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -18089,7 +18090,7 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="113"/>
       <c r="C22" s="1" t="s">
@@ -18098,7 +18099,7 @@
       <c r="J22" s="9"/>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="111"/>
       <c r="C23" s="1" t="s">
@@ -18106,10 +18107,10 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -18131,14 +18132,14 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J26" s="9"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -18160,7 +18161,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -18181,7 +18182,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -18201,7 +18202,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -18212,7 +18213,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -18223,7 +18224,7 @@
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -18234,7 +18235,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -18254,11 +18255,11 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="T35" s="9"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
     </row>
   </sheetData>
@@ -18278,30 +18279,30 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="43" t="s">
         <v>94</v>
       </c>
@@ -18319,7 +18320,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="str">
         <f>EnergyBalance!E2</f>
@@ -18349,7 +18350,7 @@
       <c r="R2" s="196"/>
       <c r="S2" s="196"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K3" s="197" t="s">
         <v>7</v>
       </c>
@@ -18378,7 +18379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="K4" s="199" t="s">
         <v>40</v>
@@ -18408,7 +18409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K5" s="200" t="s">
         <v>93</v>
       </c>
@@ -18430,7 +18431,7 @@
       <c r="R5" s="200"/>
       <c r="S5" s="200"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -18447,7 +18448,7 @@
       <c r="R7" s="202"/>
       <c r="S7" s="202"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -18500,7 +18501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
@@ -18549,7 +18550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>114</v>
       </c>
@@ -18581,7 +18582,7 @@
       <c r="R10" s="203"/>
       <c r="S10" s="203"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="str">
         <f>M11</f>
         <v>MINGAS1</v>
@@ -18627,7 +18628,7 @@
       <c r="R11" s="201"/>
       <c r="S11" s="201"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -18662,7 +18663,7 @@
       <c r="S12" s="201"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="str">
         <f>M12</f>
         <v>MINGAS2</v>
@@ -18706,7 +18707,7 @@
       <c r="R13" s="201"/>
       <c r="S13" s="201"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -18742,7 +18743,7 @@
       <c r="R14" s="201"/>
       <c r="S14" s="201"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" s="15" t="str">
         <f>M13</f>
@@ -18784,7 +18785,7 @@
       <c r="S15" s="201"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="15" t="str">
         <f>M14</f>
@@ -18803,7 +18804,7 @@
       </c>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="str">
         <f>M15</f>
         <v>EXPGAS1</v>
@@ -18829,7 +18830,7 @@
       </c>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="E18" s="9">
@@ -18842,8 +18843,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -18865,7 +18866,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -18879,11 +18880,11 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -18905,7 +18906,7 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B24" s="113"/>
       <c r="C24" s="1" t="s">
         <v>181</v>
@@ -18913,7 +18914,7 @@
       <c r="I24" s="9"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="111"/>
       <c r="C25" s="1" t="s">
@@ -18921,7 +18922,7 @@
       </c>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -18942,7 +18943,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -18962,7 +18963,7 @@
       <c r="R27"/>
       <c r="S27"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -18981,7 +18982,7 @@
       <c r="R28"/>
       <c r="S28"/>
     </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -19000,7 +19001,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -19019,7 +19020,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -19038,7 +19039,7 @@
       <c r="R31"/>
       <c r="S31"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -19057,7 +19058,7 @@
       <c r="R32"/>
       <c r="S32"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -19076,16 +19077,16 @@
       <c r="R33"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="J34" s="9"/>
       <c r="T34" s="9"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J36" s="9"/>
     </row>
   </sheetData>
@@ -19101,34 +19102,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="43" t="s">
         <v>94</v>
       </c>
@@ -19146,7 +19147,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="str">
         <f>EnergyBalance!F2</f>
@@ -19176,7 +19177,7 @@
       <c r="R2" s="196"/>
       <c r="S2" s="196"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K3" s="197" t="s">
         <v>7</v>
       </c>
@@ -19205,7 +19206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="K4" s="199" t="s">
         <v>40</v>
@@ -19237,7 +19238,7 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K5" s="200" t="s">
         <v>93</v>
       </c>
@@ -19264,14 +19265,14 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -19290,7 +19291,7 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -19343,7 +19344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
@@ -19393,7 +19394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>114</v>
       </c>
@@ -19428,7 +19429,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="str">
         <f>M11</f>
         <v>MINOIL1</v>
@@ -19474,7 +19475,7 @@
       <c r="R11" s="201"/>
       <c r="S11" s="201"/>
     </row>
-    <row r="12" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -19506,7 +19507,7 @@
       <c r="R12" s="201"/>
       <c r="S12" s="201"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="15" t="str">
         <f>M12</f>
@@ -19557,7 +19558,7 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -19599,7 +19600,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="str">
         <f>M13</f>
         <v>MINOIL3</v>
@@ -19642,7 +19643,7 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="15" t="str">
         <f>M14</f>
@@ -19656,8 +19657,8 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="115">
-        <v>8</v>
+      <c r="H16" s="214">
+        <v>7</v>
       </c>
       <c r="J16"/>
       <c r="T16"/>
@@ -19666,7 +19667,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17" s="15" t="str">
         <f>M15</f>
@@ -19697,7 +19698,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E18" s="9">
         <v>0</v>
       </c>
@@ -19715,14 +19716,14 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U19" s="1"/>
       <c r="V19"/>
       <c r="W19"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -19734,7 +19735,7 @@
       <c r="X20"/>
       <c r="Y20"/>
     </row>
-    <row r="21" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -19749,7 +19750,7 @@
       <c r="X21"/>
       <c r="Y21"/>
     </row>
-    <row r="22" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -19773,48 +19774,48 @@
       <c r="X22"/>
       <c r="Y22"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="113"/>
       <c r="C24" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="111"/>
       <c r="C25" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J26" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" s="9"/>
     </row>
   </sheetData>
@@ -19834,31 +19835,31 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="48" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" style="48" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.5703125" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="2.5546875" style="48" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.5546875" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="48"/>
+    <col min="20" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="43" t="s">
         <v>94</v>
       </c>
@@ -19876,7 +19877,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="str">
         <f>EnergyBalance!H2</f>
@@ -19906,7 +19907,7 @@
       <c r="R2" s="196"/>
       <c r="S2" s="196"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H3" s="18"/>
       <c r="K3" s="197" t="s">
         <v>7</v>
@@ -19936,7 +19937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="K4" s="199" t="s">
         <v>40</v>
@@ -19966,7 +19967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K5" s="200" t="s">
         <v>93</v>
       </c>
@@ -19988,7 +19989,7 @@
       <c r="R5" s="200"/>
       <c r="S5" s="200"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -20006,7 +20007,7 @@
       <c r="R7" s="202"/>
       <c r="S7" s="202"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -20059,7 +20060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
@@ -20108,7 +20109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="50" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" s="50" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>114</v>
       </c>
@@ -20142,7 +20143,7 @@
       <c r="S10" s="203"/>
       <c r="T10" s="48"/>
     </row>
-    <row r="11" spans="2:20" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="str">
         <f>M11</f>
         <v>MINRNW1</v>
@@ -20179,7 +20180,7 @@
       <c r="R11" s="201"/>
       <c r="S11" s="201"/>
     </row>
-    <row r="12" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -20198,7 +20199,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -20219,7 +20220,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="50"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -20238,7 +20239,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -20257,7 +20258,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="9"/>
@@ -20278,7 +20279,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="48"/>
     </row>
-    <row r="17" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -20296,7 +20297,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -20317,7 +20318,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="50"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -20335,7 +20336,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="2:20" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -20356,7 +20357,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="48"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -20377,7 +20378,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="49"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -20388,7 +20389,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="76"/>
       <c r="C23" s="1" t="s">
         <v>181</v>
@@ -20411,7 +20412,7 @@
       <c r="S23"/>
       <c r="T23" s="48"/>
     </row>
-    <row r="24" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="111"/>
       <c r="C24" s="1" t="s">
         <v>182</v>
@@ -20431,7 +20432,7 @@
       <c r="R24"/>
       <c r="S24"/>
     </row>
-    <row r="25" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -20449,44 +20450,44 @@
       <c r="R25"/>
       <c r="S25"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I26" s="50"/>
       <c r="J26" s="50"/>
       <c r="T26" s="50"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I30" s="51"/>
       <c r="J30" s="51"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I31" s="51"/>
       <c r="J31" s="51"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I32" s="51"/>
       <c r="J32" s="51"/>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I33" s="51"/>
       <c r="J33" s="51"/>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" s="51"/>
       <c r="J34" s="51"/>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I35" s="51"/>
       <c r="J35" s="51"/>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I36" s="51"/>
       <c r="J36" s="51"/>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I37" s="51"/>
       <c r="J37" s="51"/>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
     </row>
@@ -20507,31 +20508,31 @@
       <selection activeCell="G9" sqref="G9:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
     <col min="10" max="10" width="2" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="48"/>
+    <col min="20" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="43" t="s">
         <v>94</v>
       </c>
@@ -20549,7 +20550,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="str">
         <f>EnergyBalance!G2</f>
@@ -20579,7 +20580,7 @@
       <c r="R2" s="196"/>
       <c r="S2" s="196"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H3" s="18"/>
       <c r="K3" s="197" t="s">
         <v>7</v>
@@ -20609,7 +20610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="K4" s="199" t="s">
         <v>40</v>
@@ -20639,7 +20640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K5" s="200" t="s">
         <v>93</v>
       </c>
@@ -20661,7 +20662,7 @@
       <c r="R5" s="200"/>
       <c r="S5" s="200"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -20678,7 +20679,7 @@
       <c r="R7" s="202"/>
       <c r="S7" s="202"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -20731,7 +20732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
@@ -20780,7 +20781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="50" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" s="50" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>114</v>
       </c>
@@ -20814,7 +20815,7 @@
       <c r="S10" s="203"/>
       <c r="T10" s="48"/>
     </row>
-    <row r="11" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="str">
         <f>M11</f>
         <v>MINNUC1</v>
@@ -20851,7 +20852,7 @@
       <c r="R11" s="201"/>
       <c r="S11" s="201"/>
     </row>
-    <row r="12" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -20870,7 +20871,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -20891,7 +20892,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="50"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -20910,7 +20911,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -20929,7 +20930,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="9"/>
@@ -20950,7 +20951,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="48"/>
     </row>
-    <row r="17" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -20969,7 +20970,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -20990,7 +20991,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="50"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -21009,7 +21010,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="2:20" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -21030,7 +21031,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="48"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -21051,7 +21052,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="49"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -21062,7 +21063,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="76"/>
       <c r="C23" s="1" t="s">
         <v>181</v>
@@ -21085,7 +21086,7 @@
       <c r="S23"/>
       <c r="T23" s="48"/>
     </row>
-    <row r="24" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="111"/>
       <c r="C24" s="1" t="s">
         <v>182</v>
@@ -21106,7 +21107,7 @@
       <c r="R24"/>
       <c r="S24"/>
     </row>
-    <row r="25" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -21125,35 +21126,35 @@
       <c r="R25"/>
       <c r="S25"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J26" s="50"/>
       <c r="T26" s="50"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J30" s="51"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J31" s="51"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J32" s="51"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" s="51"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" s="51"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" s="51"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" s="51"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J37" s="51"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J38" s="51"/>
     </row>
   </sheetData>
@@ -21173,28 +21174,28 @@
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="64.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.44140625" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>94</v>
       </c>
@@ -21214,7 +21215,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19" t="s">
@@ -21243,7 +21244,7 @@
       <c r="P2" s="196"/>
       <c r="Q2" s="196"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I3" s="197" t="s">
         <v>7</v>
       </c>
@@ -21272,7 +21273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" s="9" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -21306,7 +21307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -21333,7 +21334,7 @@
       <c r="P5" s="201"/>
       <c r="Q5" s="201"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -21358,7 +21359,7 @@
       <c r="P6" s="201"/>
       <c r="Q6" s="201"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -21383,7 +21384,7 @@
       <c r="P7" s="201"/>
       <c r="Q7" s="201"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -21408,7 +21409,7 @@
       <c r="P8" s="201"/>
       <c r="Q8" s="201"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -21433,7 +21434,7 @@
       <c r="P9" s="201"/>
       <c r="Q9" s="201"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -21458,7 +21459,7 @@
       <c r="P10" s="201"/>
       <c r="Q10" s="201"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -21483,11 +21484,11 @@
       <c r="P11" s="201"/>
       <c r="Q11" s="201"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="K12" s="51"/>
       <c r="L12" s="53"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
@@ -21505,7 +21506,7 @@
       <c r="P13" s="202"/>
       <c r="Q13" s="202"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>1</v>
       </c>
@@ -21552,7 +21553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
         <v>42</v>
       </c>
@@ -21599,7 +21600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -21625,7 +21626,7 @@
       <c r="P16" s="203"/>
       <c r="Q16" s="203"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f t="shared" ref="B17:B23" si="1">K17</f>
         <v>FTE-RSDGAS</v>
@@ -21669,7 +21670,7 @@
       <c r="P17" s="201"/>
       <c r="Q17" s="201"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAOIL</v>
@@ -21711,7 +21712,7 @@
       <c r="P18" s="201"/>
       <c r="Q18" s="201"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCCOA</v>
@@ -21753,7 +21754,7 @@
       <c r="P19" s="201"/>
       <c r="Q19" s="201"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCGAS</v>
@@ -21795,7 +21796,7 @@
       <c r="P20" s="201"/>
       <c r="Q20" s="201"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCOIL</v>
@@ -21837,7 +21838,7 @@
       <c r="P21" s="201"/>
       <c r="Q21" s="201"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCRNW</v>
@@ -21879,7 +21880,7 @@
       <c r="P22" s="201"/>
       <c r="Q22" s="201"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCNUC</v>
@@ -21921,21 +21922,21 @@
       <c r="P23" s="201"/>
       <c r="Q23" s="201"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I24" s="49"/>
       <c r="J24" s="48"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="76"/>
       <c r="C26" s="1" t="s">
         <v>181</v>
@@ -21946,7 +21947,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="111"/>
       <c r="C27" s="1" t="s">
         <v>182</v>
@@ -21957,7 +21958,7 @@
       <c r="P27" s="56"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -21984,39 +21985,39 @@
       <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="48" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="48" customWidth="1"/>
     <col min="7" max="7" width="10" style="48" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="48" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="48" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="48" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" style="48" customWidth="1"/>
     <col min="13" max="13" width="7" style="48" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="48" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="48" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="48" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" style="48" customWidth="1"/>
     <col min="16" max="16" width="2" style="51" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" style="51" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" customWidth="1"/>
     <col min="22" max="22" width="55" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.85546875" style="48"/>
+    <col min="27" max="27" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="43" t="s">
         <v>94</v>
       </c>
@@ -22042,7 +22043,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="2:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="str">
         <f>EnergyBalance!B11</f>
         <v>ELC</v>
@@ -22083,7 +22084,7 @@
       <c r="Z2" s="196"/>
       <c r="AA2" s="196"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="S3" s="197" t="s">
         <v>7</v>
       </c>
@@ -22112,7 +22113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:27" s="50" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" s="50" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="58" t="s">
         <v>161</v>
       </c>
@@ -22160,7 +22161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:27" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="57" t="s">
         <v>167</v>
       </c>
@@ -22203,7 +22204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="S6" s="202" t="s">
         <v>137</v>
       </c>
@@ -22225,11 +22226,11 @@
       <c r="Z6" s="202"/>
       <c r="AA6" s="202"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -22256,7 +22257,7 @@
       <c r="Z8" s="196"/>
       <c r="AA8" s="196"/>
     </row>
-    <row r="9" spans="2:27" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
@@ -22332,7 +22333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>42</v>
       </c>
@@ -22406,7 +22407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
         <v>114</v>
       </c>
@@ -22463,7 +22464,7 @@
       <c r="Z11" s="199"/>
       <c r="AA11" s="199"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="str">
         <f>U12</f>
         <v>ELCTECOA00</v>
@@ -22530,7 +22531,7 @@
       <c r="Z12" s="201"/>
       <c r="AA12" s="201"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D13" s="48" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -22572,7 +22573,7 @@
       <c r="Z13" s="201"/>
       <c r="AA13" s="201"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="48" t="str">
         <f>U13</f>
         <v>ELCTEGAS00</v>
@@ -22638,7 +22639,7 @@
       <c r="Z14" s="201"/>
       <c r="AA14" s="201"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D15" s="48" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -22680,7 +22681,7 @@
       <c r="Z15" s="201"/>
       <c r="AA15" s="201"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="48" t="str">
         <f>U14</f>
         <v>ELCTEOIL00</v>
@@ -22747,7 +22748,7 @@
       <c r="Z16" s="201"/>
       <c r="AA16" s="201"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D17" s="48" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -22791,7 +22792,7 @@
       <c r="Z17" s="201"/>
       <c r="AA17" s="201"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="48" t="str">
         <f>U15</f>
         <v>ELCRERNW00</v>
@@ -22856,7 +22857,7 @@
       <c r="Z18" s="201"/>
       <c r="AA18" s="201"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="178" t="str">
         <f>U16</f>
         <v>ELCTENUC00</v>
@@ -22924,7 +22925,7 @@
       <c r="Z19" s="201"/>
       <c r="AA19" s="201"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="48" t="str">
         <f>U17</f>
         <v>ELCTNCOA00</v>
@@ -22977,7 +22978,7 @@
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D21" s="48" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -22998,7 +22999,7 @@
       <c r="P21" s="156"/>
       <c r="Q21" s="48"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="48" t="str">
         <f>U18</f>
         <v>ELCTNGAS00</v>
@@ -23039,7 +23040,7 @@
       <c r="P22" s="156"/>
       <c r="Q22" s="48"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D23" s="48" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -23058,7 +23059,7 @@
       <c r="P23" s="156"/>
       <c r="Q23" s="48"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="48" t="str">
         <f>U19</f>
         <v>ELCTNOIL00</v>
@@ -23099,7 +23100,7 @@
       <c r="P24" s="156"/>
       <c r="Q24" s="48"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D25" s="48" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -23118,14 +23119,14 @@
       <c r="P25" s="50"/>
       <c r="Q25" s="48"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="N26" s="54"/>
       <c r="Q26" s="192"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q28" s="192"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q30" s="192"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
@@ -23135,7 +23136,7 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="15"/>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="76"/>
       <c r="C31" s="1" t="s">
         <v>181</v>
@@ -23148,7 +23149,7 @@
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" s="111"/>
       <c r="C32" s="1" t="s">
         <v>182</v>
@@ -23161,7 +23162,7 @@
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
     </row>
-    <row r="33" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="19:25" x14ac:dyDescent="0.25">
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
@@ -23170,7 +23171,7 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="19:25" x14ac:dyDescent="0.25">
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
@@ -23179,7 +23180,7 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="15"/>
     </row>
-    <row r="35" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="19:25" x14ac:dyDescent="0.25">
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
@@ -23188,7 +23189,7 @@
       <c r="X35" s="9"/>
       <c r="Y35" s="15"/>
     </row>
-    <row r="36" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="19:25" x14ac:dyDescent="0.25">
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
@@ -23197,7 +23198,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="19:25" x14ac:dyDescent="0.25">
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
